--- a/Data/Processed/Angiosperms/missing_powo_ipni/Dilleniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Dilleniaceae.xlsx
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 25(3, Beibl. 60): 25. 1898 [19 Jul 1898] </t>
+          <t>Bot. Jahrb. Syst. 25(3, Beibl. 60): 25. 1898 [19 Jul 1898]</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 39: 274. 1936 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 39: 274. 1936</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 30(2): 173. 1901 [2 Jul 1901] </t>
+          <t>Bot. Jahrb. Syst. 30(2): 173. 1901 [2 Jul 1901]</t>
         </is>
       </c>
       <c r="J86" t="b">
